--- a/Exercício Teste de Mesa.xlsx
+++ b/Exercício Teste de Mesa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\aula\aula-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46277A84-2D83-4CE9-919B-18484E323435}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5221868A-B6F2-4C39-AF5F-BFDCEEE64E30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{226AA7DE-5930-4485-8E58-7D841B42409B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Linha</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>c=d+a+b</t>
+  </si>
+  <si>
+    <t>23s</t>
   </si>
 </sst>
 </file>
@@ -498,7 +501,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +626,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -639,8 +642,8 @@
       <c r="D8" s="1">
         <v>4</v>
       </c>
-      <c r="E8" s="1">
-        <v>21</v>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
